--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H2">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I2">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J2">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N2">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q2">
-        <v>66.59516533416156</v>
+        <v>301.462730310745</v>
       </c>
       <c r="R2">
-        <v>66.59516533416156</v>
+        <v>2713.164572796705</v>
       </c>
       <c r="S2">
-        <v>0.0009803243736415585</v>
+        <v>0.003763636869415552</v>
       </c>
       <c r="T2">
-        <v>0.0009803243736415585</v>
+        <v>0.003763636869415552</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H3">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I3">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J3">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N3">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q3">
-        <v>432.872957442836</v>
+        <v>1066.45562096948</v>
       </c>
       <c r="R3">
-        <v>432.872957442836</v>
+        <v>9598.100588725321</v>
       </c>
       <c r="S3">
-        <v>0.006372172945921552</v>
+        <v>0.01331425510058525</v>
       </c>
       <c r="T3">
-        <v>0.006372172945921552</v>
+        <v>0.01331425510058525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H4">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I4">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J4">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N4">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q4">
-        <v>123.3914398206498</v>
+        <v>417.0509073502059</v>
       </c>
       <c r="R4">
-        <v>123.3914398206498</v>
+        <v>3753.458166151854</v>
       </c>
       <c r="S4">
-        <v>0.001816402667489998</v>
+        <v>0.00520670720957276</v>
       </c>
       <c r="T4">
-        <v>0.001816402667489998</v>
+        <v>0.005206707209572761</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H5">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I5">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J5">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N5">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q5">
-        <v>125.1953470632748</v>
+        <v>308.618945200748</v>
       </c>
       <c r="R5">
-        <v>125.1953470632748</v>
+        <v>2777.570506806732</v>
       </c>
       <c r="S5">
-        <v>0.001842957361496092</v>
+        <v>0.003852979237467859</v>
       </c>
       <c r="T5">
-        <v>0.001842957361496092</v>
+        <v>0.003852979237467859</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H6">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I6">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J6">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N6">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q6">
-        <v>121.3520064985225</v>
+        <v>313.000903881018</v>
       </c>
       <c r="R6">
-        <v>121.3520064985225</v>
+        <v>2817.008134929162</v>
       </c>
       <c r="S6">
-        <v>0.001786380875606668</v>
+        <v>0.003907686170004162</v>
       </c>
       <c r="T6">
-        <v>0.001786380875606668</v>
+        <v>0.003907686170004162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H7">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I7">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J7">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N7">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q7">
-        <v>41.8747003088541</v>
+        <v>110.858162962078</v>
       </c>
       <c r="R7">
-        <v>41.8747003088541</v>
+        <v>997.723466658702</v>
       </c>
       <c r="S7">
-        <v>0.0006164229662276609</v>
+        <v>0.001384018080675106</v>
       </c>
       <c r="T7">
-        <v>0.0006164229662276609</v>
+        <v>0.001384018080675106</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H8">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I8">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J8">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N8">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q8">
-        <v>4601.786664228763</v>
+        <v>8645.214497327948</v>
       </c>
       <c r="R8">
-        <v>4601.786664228763</v>
+        <v>77806.93047595154</v>
       </c>
       <c r="S8">
-        <v>0.06774130834581754</v>
+        <v>0.1079319091703641</v>
       </c>
       <c r="T8">
-        <v>0.06774130834581754</v>
+        <v>0.1079319091703641</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H9">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I9">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J9">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N9">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q9">
-        <v>29911.91617094566</v>
+        <v>30583.34138239446</v>
       </c>
       <c r="R9">
-        <v>29911.91617094566</v>
+        <v>275250.0724415501</v>
       </c>
       <c r="S9">
-        <v>0.4403229624487317</v>
+        <v>0.3818203036178086</v>
       </c>
       <c r="T9">
-        <v>0.4403229624487317</v>
+        <v>0.3818203036178086</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H10">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I10">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J10">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N10">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q10">
-        <v>8526.461033581587</v>
+        <v>11960.00098131953</v>
       </c>
       <c r="R10">
-        <v>8526.461033581587</v>
+        <v>107640.0088318758</v>
       </c>
       <c r="S10">
-        <v>0.1255150810150062</v>
+        <v>0.1493156404612314</v>
       </c>
       <c r="T10">
-        <v>0.1255150810150062</v>
+        <v>0.1493156404612314</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H11">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I11">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J11">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N11">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q11">
-        <v>8651.112669341688</v>
+        <v>8850.437254546647</v>
       </c>
       <c r="R11">
-        <v>8651.112669341688</v>
+        <v>79653.93529091982</v>
       </c>
       <c r="S11">
-        <v>0.1273500345906411</v>
+        <v>0.1104940299828282</v>
       </c>
       <c r="T11">
-        <v>0.1273500345906411</v>
+        <v>0.1104940299828282</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H12">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I12">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J12">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N12">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q12">
-        <v>8385.534330910952</v>
+        <v>8976.101122416194</v>
       </c>
       <c r="R12">
-        <v>8385.534330910952</v>
+        <v>80784.91010174573</v>
       </c>
       <c r="S12">
-        <v>0.1234405478138087</v>
+        <v>0.1120628911345191</v>
       </c>
       <c r="T12">
-        <v>0.1234405478138087</v>
+        <v>0.1120628911345191</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H13">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I13">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J13">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N13">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q13">
-        <v>2893.579984116529</v>
+        <v>3179.141237787499</v>
       </c>
       <c r="R13">
-        <v>2893.579984116529</v>
+        <v>28612.27114008749</v>
       </c>
       <c r="S13">
-        <v>0.04259538918894554</v>
+        <v>0.03969025677994384</v>
       </c>
       <c r="T13">
-        <v>0.04259538918894554</v>
+        <v>0.03969025677994383</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H14">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I14">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J14">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N14">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q14">
-        <v>1.914809000121422</v>
+        <v>5.179099015594446</v>
       </c>
       <c r="R14">
-        <v>1.914809000121422</v>
+        <v>46.61189114035001</v>
       </c>
       <c r="S14">
-        <v>2.818724038401526E-05</v>
+        <v>6.465889825038278E-05</v>
       </c>
       <c r="T14">
-        <v>2.818724038401526E-05</v>
+        <v>6.46588982503828E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H15">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I15">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J15">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N15">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q15">
-        <v>12.44638451847993</v>
+        <v>18.32159899515556</v>
       </c>
       <c r="R15">
-        <v>12.44638451847993</v>
+        <v>164.8943909564</v>
       </c>
       <c r="S15">
-        <v>0.0001832189175588964</v>
+        <v>0.0002287375471380338</v>
       </c>
       <c r="T15">
-        <v>0.0001832189175588964</v>
+        <v>0.0002287375471380338</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H16">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I16">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J16">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N16">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q16">
-        <v>3.547870754895778</v>
+        <v>7.164892129397779</v>
       </c>
       <c r="R16">
-        <v>3.547870754895778</v>
+        <v>64.48402916458001</v>
       </c>
       <c r="S16">
-        <v>5.222697711015745E-05</v>
+        <v>8.945069977900891E-05</v>
       </c>
       <c r="T16">
-        <v>5.222697711015745E-05</v>
+        <v>8.945069977900894E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H17">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I17">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J17">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N17">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q17">
-        <v>3.599738451390419</v>
+        <v>5.302042058848889</v>
       </c>
       <c r="R17">
-        <v>3.599738451390419</v>
+        <v>47.71837852964001</v>
       </c>
       <c r="S17">
-        <v>5.299050351366133E-05</v>
+        <v>6.619379103780502E-05</v>
       </c>
       <c r="T17">
-        <v>5.299050351366133E-05</v>
+        <v>6.619379103780504E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H18">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I18">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J18">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N18">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q18">
-        <v>3.48923098336339</v>
+        <v>5.377323662860001</v>
       </c>
       <c r="R18">
-        <v>3.48923098336339</v>
+        <v>48.39591296574</v>
       </c>
       <c r="S18">
-        <v>5.136376133451488E-05</v>
+        <v>6.713365056920681E-05</v>
       </c>
       <c r="T18">
-        <v>5.136376133451488E-05</v>
+        <v>6.713365056920681E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H19">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I19">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J19">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N19">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q19">
-        <v>1.204022133235096</v>
+        <v>1.904531953504445</v>
       </c>
       <c r="R19">
-        <v>1.204022133235096</v>
+        <v>17.14078758154</v>
       </c>
       <c r="S19">
-        <v>1.77239929909565E-05</v>
+        <v>2.377728972268207E-05</v>
       </c>
       <c r="T19">
-        <v>1.77239929909565E-05</v>
+        <v>2.377728972268207E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H20">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I20">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J20">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N20">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q20">
-        <v>4.982614268179284</v>
+        <v>9.390475614205</v>
       </c>
       <c r="R20">
-        <v>4.982614268179284</v>
+        <v>84.514280527845</v>
       </c>
       <c r="S20">
-        <v>7.334733966107729E-05</v>
+        <v>0.0001172361844083978</v>
       </c>
       <c r="T20">
-        <v>7.334733966107729E-05</v>
+        <v>0.0001172361844083978</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H21">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I21">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J21">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N21">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q21">
-        <v>32.38732065970616</v>
+        <v>33.21977974532</v>
       </c>
       <c r="R21">
-        <v>32.38732065970616</v>
+        <v>298.97801770788</v>
       </c>
       <c r="S21">
-        <v>0.000476762534942875</v>
+        <v>0.0004147351406075089</v>
       </c>
       <c r="T21">
-        <v>0.000476762534942875</v>
+        <v>0.0004147351406075089</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H22">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I22">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J22">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N22">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q22">
-        <v>9.232080820530264</v>
+        <v>12.991013420854</v>
       </c>
       <c r="R22">
-        <v>9.232080820530264</v>
+        <v>116.919120787686</v>
       </c>
       <c r="S22">
-        <v>0.0001359022656131457</v>
+        <v>0.0001621874021753848</v>
       </c>
       <c r="T22">
-        <v>0.0001359022656131457</v>
+        <v>0.0001621874021753848</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H23">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I23">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J23">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N23">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q23">
-        <v>9.367048185210187</v>
+        <v>9.613389608732</v>
       </c>
       <c r="R23">
-        <v>9.367048185210187</v>
+        <v>86.520506478588</v>
       </c>
       <c r="S23">
-        <v>0.0001378890734629044</v>
+        <v>0.0001200191729643819</v>
       </c>
       <c r="T23">
-        <v>0.0001378890734629044</v>
+        <v>0.0001200191729643819</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H24">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I24">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J24">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N24">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q24">
-        <v>9.079491521910127</v>
+        <v>9.749886336162</v>
       </c>
       <c r="R24">
-        <v>9.079491521910127</v>
+        <v>87.74897702545799</v>
       </c>
       <c r="S24">
-        <v>0.0001336560513745655</v>
+        <v>0.0001217232778644489</v>
       </c>
       <c r="T24">
-        <v>0.0001336560513745655</v>
+        <v>0.0001217232778644489</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H25">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I25">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J25">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N25">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q25">
-        <v>3.13304243915734</v>
+        <v>3.453199255702</v>
       </c>
       <c r="R25">
-        <v>3.13304243915734</v>
+        <v>31.078793301318</v>
       </c>
       <c r="S25">
-        <v>4.612043308771235E-05</v>
+        <v>4.311175720727278E-05</v>
       </c>
       <c r="T25">
-        <v>4.612043308771235E-05</v>
+        <v>4.311175720727278E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H26">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I26">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J26">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N26">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O26">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P26">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q26">
-        <v>289.0776093384414</v>
+        <v>3.155985210886667</v>
       </c>
       <c r="R26">
-        <v>289.0776093384414</v>
+        <v>28.40386689798</v>
       </c>
       <c r="S26">
-        <v>0.004255411408418491</v>
+        <v>3.940116341008244E-05</v>
       </c>
       <c r="T26">
-        <v>0.004255411408418491</v>
+        <v>3.940116341008245E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H27">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I27">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J27">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N27">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P27">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q27">
-        <v>1879.023485517882</v>
+        <v>11.16462444421333</v>
       </c>
       <c r="R27">
-        <v>1879.023485517882</v>
+        <v>100.48161999792</v>
       </c>
       <c r="S27">
-        <v>0.02766045421247976</v>
+        <v>0.0001393856950346931</v>
       </c>
       <c r="T27">
-        <v>0.02766045421247976</v>
+        <v>0.0001393856950346931</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H28">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I28">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J28">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N28">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O28">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P28">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q28">
-        <v>535.6199996981459</v>
+        <v>4.366067057202667</v>
       </c>
       <c r="R28">
-        <v>535.6199996981459</v>
+        <v>39.294603514824</v>
       </c>
       <c r="S28">
-        <v>0.007884676583941501</v>
+        <v>5.450853222847933E-05</v>
       </c>
       <c r="T28">
-        <v>0.007884676583941501</v>
+        <v>5.450853222847934E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H29">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I29">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J29">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N29">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O29">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P29">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q29">
-        <v>543.4504358949737</v>
+        <v>3.230902957221333</v>
       </c>
       <c r="R29">
-        <v>543.4504358949737</v>
+        <v>29.078126614992</v>
       </c>
       <c r="S29">
-        <v>0.007999945724298416</v>
+        <v>4.033648032965E-05</v>
       </c>
       <c r="T29">
-        <v>0.007999945724298416</v>
+        <v>4.033648032965001E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H30">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I30">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J30">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N30">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O30">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P30">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q30">
-        <v>526.767187242355</v>
+        <v>3.276777274008</v>
       </c>
       <c r="R30">
-        <v>526.767187242355</v>
+        <v>29.490995466072</v>
       </c>
       <c r="S30">
-        <v>0.007754357396622997</v>
+        <v>4.090920210470849E-05</v>
       </c>
       <c r="T30">
-        <v>0.007754357396622997</v>
+        <v>4.090920210470849E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.129164</v>
+      </c>
+      <c r="H31">
+        <v>0.387492</v>
+      </c>
+      <c r="I31">
+        <v>0.0003290302293283772</v>
+      </c>
+      <c r="J31">
+        <v>0.0003290302293283772</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>8.985195333333333</v>
+      </c>
+      <c r="N31">
+        <v>26.955586</v>
+      </c>
+      <c r="O31">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="P31">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="Q31">
+        <v>1.160563770034667</v>
+      </c>
+      <c r="R31">
+        <v>10.445073930312</v>
+      </c>
+      <c r="S31">
+        <v>1.448915622076385E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.448915622076385E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>25.676422</v>
+      </c>
+      <c r="H32">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I32">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J32">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>24.43393833333333</v>
+      </c>
+      <c r="N32">
+        <v>73.301815</v>
+      </c>
+      <c r="O32">
+        <v>0.1197493722400791</v>
+      </c>
+      <c r="P32">
+        <v>0.1197493722400791</v>
+      </c>
+      <c r="Q32">
+        <v>627.3761117686435</v>
+      </c>
+      <c r="R32">
+        <v>5646.385005917791</v>
+      </c>
+      <c r="S32">
+        <v>0.007832529954230559</v>
+      </c>
+      <c r="T32">
+        <v>0.00783252995423056</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>25.676422</v>
+      </c>
+      <c r="H33">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I33">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J33">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>86.43758666666668</v>
+      </c>
+      <c r="N33">
+        <v>259.31276</v>
+      </c>
+      <c r="O33">
+        <v>0.4236258027695808</v>
+      </c>
+      <c r="P33">
+        <v>0.4236258027695808</v>
+      </c>
+      <c r="Q33">
+        <v>2219.407951914907</v>
+      </c>
+      <c r="R33">
+        <v>19974.67156723416</v>
+      </c>
+      <c r="S33">
+        <v>0.02770838566840671</v>
+      </c>
+      <c r="T33">
+        <v>0.02770838566840671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>25.676422</v>
+      </c>
+      <c r="H34">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I34">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J34">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>33.80250733333333</v>
+      </c>
+      <c r="N34">
+        <v>101.407522</v>
+      </c>
+      <c r="O34">
+        <v>0.1656642076314483</v>
+      </c>
+      <c r="P34">
+        <v>0.1656642076314483</v>
+      </c>
+      <c r="Q34">
+        <v>867.9274429487614</v>
+      </c>
+      <c r="R34">
+        <v>7811.346986538852</v>
+      </c>
+      <c r="S34">
+        <v>0.01083571332646121</v>
+      </c>
+      <c r="T34">
+        <v>0.01083571332646121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>25.676422</v>
+      </c>
+      <c r="H35">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I35">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J35">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>25.01395866666667</v>
+      </c>
+      <c r="N35">
+        <v>75.041876</v>
+      </c>
+      <c r="O35">
+        <v>0.1225920196207674</v>
+      </c>
+      <c r="P35">
+        <v>0.1225920196207674</v>
+      </c>
+      <c r="Q35">
+        <v>642.2689586158907</v>
+      </c>
+      <c r="R35">
+        <v>5780.420627543017</v>
+      </c>
+      <c r="S35">
+        <v>0.008018460956139426</v>
+      </c>
+      <c r="T35">
+        <v>0.008018460956139428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>21.9319933500706</v>
-      </c>
-      <c r="H31">
-        <v>21.9319933500706</v>
-      </c>
-      <c r="I31">
-        <v>0.05823062631563122</v>
-      </c>
-      <c r="J31">
-        <v>0.05823062631563122</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>8.287916354753801</v>
-      </c>
-      <c r="N31">
-        <v>8.287916354753801</v>
-      </c>
-      <c r="O31">
-        <v>0.04595143757112193</v>
-      </c>
-      <c r="P31">
-        <v>0.04595143757112193</v>
-      </c>
-      <c r="Q31">
-        <v>181.7705263784017</v>
-      </c>
-      <c r="R31">
-        <v>181.7705263784017</v>
-      </c>
-      <c r="S31">
-        <v>0.002675780989870058</v>
-      </c>
-      <c r="T31">
-        <v>0.002675780989870058</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>25.676422</v>
+      </c>
+      <c r="H36">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I36">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J36">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>25.369122</v>
+      </c>
+      <c r="N36">
+        <v>76.107366</v>
+      </c>
+      <c r="O36">
+        <v>0.1243326553557499</v>
+      </c>
+      <c r="P36">
+        <v>0.1243326553557499</v>
+      </c>
+      <c r="Q36">
+        <v>651.388282241484</v>
+      </c>
+      <c r="R36">
+        <v>5862.494540173357</v>
+      </c>
+      <c r="S36">
+        <v>0.0081323119206883</v>
+      </c>
+      <c r="T36">
+        <v>0.0081323119206883</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>25.676422</v>
+      </c>
+      <c r="H37">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I37">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J37">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>8.985195333333333</v>
+      </c>
+      <c r="N37">
+        <v>26.955586</v>
+      </c>
+      <c r="O37">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="P37">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="Q37">
+        <v>230.7076671310974</v>
+      </c>
+      <c r="R37">
+        <v>2076.369004179876</v>
+      </c>
+      <c r="S37">
+        <v>0.002880289318604702</v>
+      </c>
+      <c r="T37">
+        <v>0.002880289318604702</v>
       </c>
     </row>
   </sheetData>
